--- a/SS_Admin/databases/reports/2022_trekker-report.xlsx
+++ b/SS_Admin/databases/reports/2022_trekker-report.xlsx
@@ -815,13 +815,13 @@
         <v>20</v>
       </c>
       <c r="G6" s="3">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="H6" s="3">
         <v>0.5</v>
       </c>
       <c r="I6" s="3">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="J6" s="3">
         <v>0</v>

--- a/SS_Admin/databases/reports/2022_trekker-report.xlsx
+++ b/SS_Admin/databases/reports/2022_trekker-report.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="90">
   <si>
     <t>ID</t>
   </si>
@@ -67,205 +67,226 @@
     <t>check</t>
   </si>
   <si>
+    <t>Mon, May 09, 2022 | 09:59:47 AM</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>Adrian Monk</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>card</t>
+  </si>
+  <si>
+    <t>Thu, May 05, 2022 | 12:30:51 PM</t>
+  </si>
+  <si>
+    <t>Caleb Rank</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>Sat, Apr 30, 2022 | 03:17:31 PM</t>
+  </si>
+  <si>
+    <t>donate</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>scholarship</t>
+  </si>
+  <si>
+    <t>Mon, May 09, 2022 | 04:54:19 PM</t>
+  </si>
+  <si>
+    <t>transfer</t>
+  </si>
+  <si>
+    <t>Ethan Most</t>
+  </si>
+  <si>
+    <t>pathfinder</t>
+  </si>
+  <si>
     <t>00-00-00 00:00:00</t>
   </si>
   <si>
-    <t>return</t>
-  </si>
-  <si>
-    <t>Adrian Monk</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>card</t>
+    <t>partial return/donate</t>
+  </si>
+  <si>
+    <t>Account Sums</t>
+  </si>
+  <si>
+    <t># of Free Items</t>
+  </si>
+  <si>
+    <t>Last Free Item</t>
+  </si>
+  <si>
+    <t>End of Season Return</t>
+  </si>
+  <si>
+    <t>Staff 1</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>Fri, Apr 29, 2022 | 03:54:46 PM</t>
+  </si>
+  <si>
+    <t>Staff 2</t>
+  </si>
+  <si>
+    <t>Staff 3</t>
+  </si>
+  <si>
+    <t>Fri, Apr 29, 2022 | 04:18:47 PM</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Bank Total</t>
+  </si>
+  <si>
+    <t>Cash Total</t>
+  </si>
+  <si>
+    <t>Account Cash Total</t>
+  </si>
+  <si>
+    <t>Account Check Total</t>
+  </si>
+  <si>
+    <t>Account Card Total</t>
+  </si>
+  <si>
+    <t>Account Scholar Total</t>
+  </si>
+  <si>
+    <t>Camper Total</t>
+  </si>
+  <si>
+    <t>Staff Total</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>Date &amp; Time</t>
+  </si>
+  <si>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t>Purchase Type(s)</t>
+  </si>
+  <si>
+    <t>Items</t>
+  </si>
+  <si>
+    <t>Sum Total</t>
+  </si>
+  <si>
+    <t>Wed, Apr 27, 2022 | 07:55:14 PM</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>$10.50</t>
+  </si>
+  <si>
+    <t>Pepsi</t>
+  </si>
+  <si>
+    <t>T-Shirt (Victory in Christ) | Large</t>
+  </si>
+  <si>
+    <t>Thu, Apr 28, 2022 | 09:10:02 AM</t>
+  </si>
+  <si>
+    <t>$30.00</t>
+  </si>
+  <si>
+    <t>T-Shirt (SJBC Hoodie) | Medium</t>
+  </si>
+  <si>
+    <t>Thu, Apr 28, 2022 | 09:25:00 AM</t>
+  </si>
+  <si>
+    <t>$0.50</t>
+  </si>
+  <si>
+    <t>Free Item | Account | Cash</t>
+  </si>
+  <si>
+    <t>$5.50</t>
+  </si>
+  <si>
+    <t>Snickers</t>
+  </si>
+  <si>
+    <t>Leather Cross Bracelet</t>
+  </si>
+  <si>
+    <t>Free Item | Account</t>
+  </si>
+  <si>
+    <t>Coca Cola</t>
   </si>
   <si>
     <t>Fri, Apr 29, 2022 | 04:51:57 PM</t>
   </si>
   <si>
-    <t>Caleb Rank</t>
-  </si>
-  <si>
-    <t>cash</t>
-  </si>
-  <si>
-    <t>Sat, Apr 30, 2022 | 03:17:31 PM</t>
-  </si>
-  <si>
-    <t>donate</t>
-  </si>
-  <si>
-    <t>John Doe</t>
-  </si>
-  <si>
-    <t>scholarship</t>
+    <t>$0.75</t>
+  </si>
+  <si>
+    <t>Fri, Apr 29, 2022 | 05:23:27 PM</t>
+  </si>
+  <si>
+    <t>Account | Cash</t>
+  </si>
+  <si>
+    <t>$0.00</t>
+  </si>
+  <si>
+    <t>Sat, Apr 30, 2022 | 09:28:57 AM</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>T-Shirt (Go For The Gold) | XX-Large</t>
   </si>
   <si>
     <t>Sat, Apr 30, 2022 | 07:27:42 PM</t>
   </si>
   <si>
-    <t>transfer</t>
-  </si>
-  <si>
-    <t>Ethan Most</t>
-  </si>
-  <si>
-    <t>pathfinder</t>
-  </si>
-  <si>
-    <t>partial return/donate</t>
-  </si>
-  <si>
-    <t>Account Sums</t>
-  </si>
-  <si>
-    <t># of Free Items</t>
-  </si>
-  <si>
-    <t>Last Free Item</t>
-  </si>
-  <si>
-    <t>End of Season Return</t>
-  </si>
-  <si>
-    <t>Staff 1</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>Fri, Apr 29, 2022 | 03:54:46 PM</t>
-  </si>
-  <si>
-    <t>Staff 2</t>
-  </si>
-  <si>
-    <t>Staff 3</t>
-  </si>
-  <si>
-    <t>Fri, Apr 29, 2022 | 04:18:47 PM</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Bank Total</t>
-  </si>
-  <si>
-    <t>Cash Total</t>
-  </si>
-  <si>
-    <t>Account Cash Total</t>
-  </si>
-  <si>
-    <t>Account Check Total</t>
-  </si>
-  <si>
-    <t>Account Card Total</t>
-  </si>
-  <si>
-    <t>Account Scholar Total</t>
-  </si>
-  <si>
-    <t>Camper Total</t>
-  </si>
-  <si>
-    <t>Staff Total</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>Date &amp; Time</t>
-  </si>
-  <si>
-    <t>Customer Name</t>
-  </si>
-  <si>
-    <t>Purchase Type(s)</t>
-  </si>
-  <si>
-    <t>Items</t>
-  </si>
-  <si>
-    <t>Sum Total</t>
-  </si>
-  <si>
-    <t>Wed, Apr 27, 2022 | 07:55:14 PM</t>
-  </si>
-  <si>
-    <t>Camper Account</t>
-  </si>
-  <si>
-    <t>$10.50</t>
-  </si>
-  <si>
-    <t>Pepsi</t>
-  </si>
-  <si>
-    <t>T-Shirt (Victory in Christ) | Large</t>
-  </si>
-  <si>
-    <t>Thu, Apr 28, 2022 | 09:10:02 AM</t>
-  </si>
-  <si>
-    <t>$30.00</t>
-  </si>
-  <si>
-    <t>T-Shirt (SJBC Hoodie) | Medium</t>
-  </si>
-  <si>
-    <t>Thu, Apr 28, 2022 | 09:25:00 AM</t>
-  </si>
-  <si>
-    <t>$0.50</t>
-  </si>
-  <si>
-    <t>Free Item|Account|Cash</t>
-  </si>
-  <si>
-    <t>$5.50</t>
-  </si>
-  <si>
-    <t>Snickers</t>
-  </si>
-  <si>
-    <t>Leather Cross Bracelet</t>
-  </si>
-  <si>
-    <t>Free Item | Account</t>
-  </si>
-  <si>
-    <t>Coca Cola</t>
-  </si>
-  <si>
-    <t>Account</t>
-  </si>
-  <si>
-    <t>$0.75</t>
-  </si>
-  <si>
-    <t>Fri, Apr 29, 2022 | 05:23:27 PM</t>
-  </si>
-  <si>
-    <t>Account | Cash</t>
-  </si>
-  <si>
-    <t>$0.00</t>
-  </si>
-  <si>
-    <t>Sat, Apr 30, 2022 | 09:28:57 AM</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>T-Shirt (Go For The Gold) | XX-Large</t>
+    <t>$6.50</t>
+  </si>
+  <si>
+    <t>Account | Donation</t>
+  </si>
+  <si>
+    <t>Mon, May 09, 2022 | 04:36:00 PM</t>
+  </si>
+  <si>
+    <t>Donation</t>
+  </si>
+  <si>
+    <t>$1.00</t>
   </si>
 </sst>
 </file>
@@ -658,7 +679,7 @@
   <sheetData>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2">
         <f>SUM(F4:F9)</f>
@@ -739,16 +760,16 @@
         <v>25</v>
       </c>
       <c r="G4" s="3">
-        <v>25</v>
+        <v>19.5</v>
       </c>
       <c r="H4" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I4" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J4" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>16</v>
@@ -777,10 +798,10 @@
         <v>50</v>
       </c>
       <c r="G5" s="3">
-        <v>17.75</v>
+        <v>11.25</v>
       </c>
       <c r="H5" s="3">
-        <v>31.25</v>
+        <v>37.75</v>
       </c>
       <c r="I5" s="3">
         <v>0</v>
@@ -853,16 +874,16 @@
         <v>10</v>
       </c>
       <c r="G7" s="3">
-        <v>9.25</v>
+        <v>7.5</v>
       </c>
       <c r="H7" s="3">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="I7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>28</v>
@@ -903,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -942,7 +963,7 @@
   <sheetData>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2">
         <f>SUM(F4:F7)</f>
@@ -976,10 +997,10 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>5</v>
@@ -994,7 +1015,7 @@
         <v>8</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>10</v>
@@ -1005,16 +1026,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F4" s="3">
         <v>20</v>
@@ -1032,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1040,16 +1061,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
@@ -1067,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1075,7 +1096,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>23</v>
@@ -1084,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F6" s="3">
         <v>30</v>
@@ -1102,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1135,41 +1156,41 @@
   <sheetData>
     <row r="2" spans="1:10">
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="3">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -1187,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="I4" s="3">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="J4" s="3">
         <v>50</v>
@@ -1200,7 +1221,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:E27"/>
+  <dimension ref="A2:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1209,43 +1230,51 @@
     <col min="1" max="4" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:5">
+      <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+    </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1">
       <c r="A4" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D4" s="4">
         <v>2</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="D5" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
@@ -1253,7 +1282,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="D6" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -1261,24 +1290,24 @@
     </row>
     <row r="7" spans="1:5" s="4" customFormat="1">
       <c r="A7" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="D8" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -1286,24 +1315,24 @@
     </row>
     <row r="9" spans="1:5" s="4" customFormat="1">
       <c r="A9" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="D10" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -1311,24 +1340,24 @@
     </row>
     <row r="11" spans="1:5" s="4" customFormat="1">
       <c r="A11" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D11" s="4">
         <v>3</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="D12" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
@@ -1336,7 +1365,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="D13" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
@@ -1344,7 +1373,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="D14" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
@@ -1352,24 +1381,24 @@
     </row>
     <row r="15" spans="1:5" s="4" customFormat="1">
       <c r="A15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="C15" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D15" s="4">
         <v>2</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="D16" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -1377,7 +1406,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="D17" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
@@ -1385,24 +1414,24 @@
     </row>
     <row r="18" spans="1:5" s="4" customFormat="1">
       <c r="A18" s="4" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="D19" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
@@ -1410,41 +1439,41 @@
     </row>
     <row r="20" spans="1:5" s="4" customFormat="1">
       <c r="A20" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D20" s="4">
         <v>0</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="4" customFormat="1">
       <c r="A21" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D21" s="4">
         <v>2</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="D22" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
@@ -1452,7 +1481,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="D23" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E23" s="2">
         <v>1</v>
@@ -1466,18 +1495,18 @@
         <v>22</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D24" s="4">
         <v>1</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="D25" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
@@ -1485,27 +1514,151 @@
     </row>
     <row r="26" spans="1:5" s="4" customFormat="1">
       <c r="A26" s="4" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="D27" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="4" customFormat="1">
+      <c r="A28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="4">
+        <v>2</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="D29" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="D30" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="4" customFormat="1">
+      <c r="A31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="D32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="4" customFormat="1">
+      <c r="A33" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="4">
+        <v>2</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="D34" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="D35" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="4" customFormat="1">
+      <c r="A36" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="4">
+        <v>2</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="D37" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="D38" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
